--- a/output/StructureDefinition-CodigoPaises.xlsx
+++ b/output/StructureDefinition-CodigoPaises.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-28T15:41:40-03:00</t>
+    <t>2024-01-08T08:41:20-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-CodigoPaises.xlsx
+++ b/output/StructureDefinition-CodigoPaises.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-08T08:41:20-03:00</t>
+    <t>2024-02-15T09:17:26-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-CodigoPaises.xlsx
+++ b/output/StructureDefinition-CodigoPaises.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-15T09:17:26-03:00</t>
+    <t>2024-02-15T14:15:38-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-CodigoPaises.xlsx
+++ b/output/StructureDefinition-CodigoPaises.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.8.6</t>
+    <t>1.8.7</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-15T14:15:38-03:00</t>
+    <t>2024-02-19T16:06:45-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-CodigoPaises.xlsx
+++ b/output/StructureDefinition-CodigoPaises.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-19T16:06:45-03:00</t>
+    <t>2024-05-08T11:32:37-04:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>HL7 Chile (http://hl7chile.cl, chair@hl7chile.cl)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -347,6 +347,12 @@
     <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R4/extensibility.html) for a list).</t>
   </si>
   <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>https://hl7chile.cl/fhir/ig/clcore/ValueSet/CodPais</t>
+  </si>
+  <si>
     <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 </t>
   </si>
@@ -457,12 +463,6 @@
   </si>
   <si>
     <t>Need to refer to a particular code in the system.</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>https://hl7chile.cl/fhir/ig/clcore/ValueSet/CodPais</t>
   </si>
   <si>
     <t>Coding.code</t>
@@ -871,42 +871,42 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="35.67578125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="35.67578125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="11.3515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="12.203125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.1484375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.7109375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.1875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="35.94921875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="35.94921875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="11.1328125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="12.3828125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.90234375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.69921875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="5.07421875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="14.625" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.98828125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="16.6640625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="16.8359375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="221.62109375" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="221.59375" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.04296875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.77734375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.13671875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.9609375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="19.80078125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="46.69140625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="20.84375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="40.0859375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="15.703125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="13.125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="23.2734375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.53125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.890625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="8.84375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="15.71484375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="16.08984375" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="17.078125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.3125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="18.9140625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="46.1484375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.73046875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="40.0390625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.98828125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.3046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="23.3359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.87890625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="45.9453125" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="45.8671875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1497,13 +1497,11 @@
         <v>77</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y6" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="Y6" s="2"/>
       <c r="Z6" t="s" s="2">
-        <v>77</v>
+        <v>108</v>
       </c>
       <c r="AA6" t="s" s="2">
         <v>77</v>
@@ -1533,7 +1531,7 @@
         <v>77</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>102</v>
@@ -1541,10 +1539,10 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
@@ -1644,14 +1642,14 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
@@ -1673,13 +1671,13 @@
         <v>91</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -1749,10 +1747,10 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -1766,28 +1764,28 @@
         <v>84</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="I9" t="s" s="2">
         <v>77</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="O9" t="s" s="2">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="P9" t="s" s="2">
         <v>77</v>
@@ -1836,7 +1834,7 @@
         <v>77</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>78</v>
@@ -1848,18 +1846,18 @@
         <v>77</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
@@ -1959,14 +1957,14 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
@@ -1988,13 +1986,13 @@
         <v>91</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
@@ -2064,10 +2062,10 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -2081,28 +2079,28 @@
         <v>84</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="I12" t="s" s="2">
         <v>77</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="K12" t="s" s="2">
         <v>98</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="O12" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="P12" t="s" s="2">
         <v>77</v>
@@ -2151,7 +2149,7 @@
         <v>77</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>78</v>
@@ -2163,18 +2161,18 @@
         <v>77</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -2194,19 +2192,19 @@
         <v>77</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="K13" t="s" s="2">
         <v>85</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -2256,7 +2254,7 @@
         <v>77</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>78</v>
@@ -2268,18 +2266,18 @@
         <v>77</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2293,26 +2291,26 @@
         <v>84</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="I14" t="s" s="2">
         <v>77</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="P14" t="s" s="2">
         <v>77</v>
@@ -2337,11 +2335,13 @@
         <v>77</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="Y14" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="Y14" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="Z14" t="s" s="2">
-        <v>144</v>
+        <v>77</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>77</v>
@@ -2371,7 +2371,7 @@
         <v>77</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>146</v>
@@ -2396,13 +2396,13 @@
         <v>84</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="I15" t="s" s="2">
         <v>77</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="K15" t="s" s="2">
         <v>85</v>
@@ -2476,7 +2476,7 @@
         <v>77</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>152</v>
@@ -2507,7 +2507,7 @@
         <v>77</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="K16" t="s" s="2">
         <v>154</v>
@@ -2583,7 +2583,7 @@
         <v>77</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>160</v>
@@ -2614,7 +2614,7 @@
         <v>77</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="K17" t="s" s="2">
         <v>85</v>
@@ -2690,7 +2690,7 @@
         <v>77</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>167</v>

--- a/output/StructureDefinition-CodigoPaises.xlsx
+++ b/output/StructureDefinition-CodigoPaises.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-08T11:32:37-04:00</t>
+    <t>2024-05-08T11:46:20-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-CodigoPaises.xlsx
+++ b/output/StructureDefinition-CodigoPaises.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-19T16:06:45-03:00</t>
+    <t>2024-03-04T15:29:29-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-CodigoPaises.xlsx
+++ b/output/StructureDefinition-CodigoPaises.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.8.7</t>
+    <t>1.8.11</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-08T11:46:20-04:00</t>
+    <t>2024-06-13T17:23:26-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-CodigoPaises.xlsx
+++ b/output/StructureDefinition-CodigoPaises.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.8.7</t>
+    <t>1.8.11</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-08T11:46:20-04:00</t>
+    <t>2024-06-17T14:21:27-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-CodigoPaises.xlsx
+++ b/output/StructureDefinition-CodigoPaises.xlsx
@@ -33,19 +33,19 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.8.11</t>
+    <t>1.8.12</t>
   </si>
   <si>
     <t>Name</t>
   </si>
   <si>
-    <t>PaisOrigenNacionalidadCl</t>
+    <t>PaisDireccion</t>
   </si>
   <si>
     <t>Title</t>
   </si>
   <si>
-    <t>Codigo de Identificación de países</t>
+    <t>Codigo de Paises</t>
   </si>
   <si>
     <t>Status</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-17T14:21:27-04:00</t>
+    <t>2024-06-21T18:30:18-04:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -84,7 +84,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Esta extensión incluye códigos de paises de origen</t>
+    <t>Esta extensión incluye códigos de paises</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -135,7 +135,7 @@
     <t>Context</t>
   </si>
   <si>
-    <t>element:Element</t>
+    <t>element:Address.country</t>
   </si>
   <si>
     <t>ID</t>
@@ -322,7 +322,7 @@
 </t>
   </si>
   <si>
-    <t>Extensión de Nacionalidad para pacientes extranjeros</t>
+    <t>Extensión de dirección del país</t>
   </si>
   <si>
     <t>Source of the definition for the extension code - a logical name or a URL.</t>
@@ -341,7 +341,7 @@
 </t>
   </si>
   <si>
-    <t>Código de País</t>
+    <t>Código del País</t>
   </si>
   <si>
     <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R4/extensibility.html) for a list).</t>

--- a/output/StructureDefinition-CodigoPaises.xlsx
+++ b/output/StructureDefinition-CodigoPaises.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-21T18:30:18-04:00</t>
+    <t>2024-06-23T21:41:08-04:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -135,7 +135,7 @@
     <t>Context</t>
   </si>
   <si>
-    <t>element:Address.country</t>
+    <t>element:Element</t>
   </si>
   <si>
     <t>ID</t>

--- a/output/StructureDefinition-CodigoPaises.xlsx
+++ b/output/StructureDefinition-CodigoPaises.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-23T21:41:08-04:00</t>
+    <t>2024-06-24T20:56:59-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-CodigoPaises.xlsx
+++ b/output/StructureDefinition-CodigoPaises.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-24T20:56:59-04:00</t>
+    <t>2024-06-25T09:03:09-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-CodigoPaises.xlsx
+++ b/output/StructureDefinition-CodigoPaises.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-25T09:03:09-04:00</t>
+    <t>2024-06-25T09:29:41-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-CodigoPaises.xlsx
+++ b/output/StructureDefinition-CodigoPaises.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-25T09:29:41-04:00</t>
+    <t>2024-06-26T18:33:17-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-CodigoPaises.xlsx
+++ b/output/StructureDefinition-CodigoPaises.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-26T18:33:17-04:00</t>
+    <t>2024-06-27T08:59:20-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-CodigoPaises.xlsx
+++ b/output/StructureDefinition-CodigoPaises.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-27T08:59:20-04:00</t>
+    <t>2024-07-18T16:07:51-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-CodigoPaises.xlsx
+++ b/output/StructureDefinition-CodigoPaises.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-18T16:07:51-04:00</t>
+    <t>2024-07-26T10:55:50-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-CodigoPaises.xlsx
+++ b/output/StructureDefinition-CodigoPaises.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-26T10:55:50-04:00</t>
+    <t>2024-07-29T12:24:08-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-CodigoPaises.xlsx
+++ b/output/StructureDefinition-CodigoPaises.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.8.12</t>
+    <t>1.9.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-29T12:24:08-04:00</t>
+    <t>2024-08-05T12:01:08-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-CodigoPaises.xlsx
+++ b/output/StructureDefinition-CodigoPaises.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-05T12:01:08-04:00</t>
+    <t>2024-08-06T12:35:59-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-CodigoPaises.xlsx
+++ b/output/StructureDefinition-CodigoPaises.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-06T12:35:59-04:00</t>
+    <t>2024-08-06T16:31:07-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-CodigoPaises.xlsx
+++ b/output/StructureDefinition-CodigoPaises.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-06T16:31:07-04:00</t>
+    <t>2024-08-07T09:55:47-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-CodigoPaises.xlsx
+++ b/output/StructureDefinition-CodigoPaises.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-07T09:55:47-04:00</t>
+    <t>2024-08-07T14:23:12-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-CodigoPaises.xlsx
+++ b/output/StructureDefinition-CodigoPaises.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-07T14:23:12-04:00</t>
+    <t>2024-08-08T12:45:25-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-CodigoPaises.xlsx
+++ b/output/StructureDefinition-CodigoPaises.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-08T12:45:25-04:00</t>
+    <t>2024-08-13T08:05:28-04:00</t>
   </si>
   <si>
     <t>Publisher</t>
